--- a/V1.0/Seznam dilu.xlsx
+++ b/V1.0/Seznam dilu.xlsx
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
   <si>
     <t>položka</t>
   </si>
   <si>
-    <t>délka</t>
-  </si>
-  <si>
     <t>počet</t>
   </si>
   <si>
@@ -44,15 +41,6 @@
     <t>Alu profil 2020</t>
   </si>
   <si>
-    <t>340mm</t>
-  </si>
-  <si>
-    <t>350mm</t>
-  </si>
-  <si>
-    <t>135mm</t>
-  </si>
-  <si>
     <t>www</t>
   </si>
   <si>
@@ -77,15 +65,6 @@
     <t>https://www.banggood.com/100pcs-M5-Hammer-Nut-Nickel-Plated-Carbon-Steel-Nut-Aluminum-Connector-T-Fastener-Sliding-Nut-p-1048442.html?p=9X051049165582016063</t>
   </si>
   <si>
-    <t>M5</t>
-  </si>
-  <si>
-    <t>8mm</t>
-  </si>
-  <si>
-    <t>10mm</t>
-  </si>
-  <si>
     <t>https://www.banggood.com/LM8UU-8mm-Linear-Ball-Bearing-Bush-Steel-for-CNC-Router-Mill-Machine-p-906777.html?p=9X051049165582016063</t>
   </si>
   <si>
@@ -204,16 +183,145 @@
   </si>
   <si>
     <t>https://www.vsepro3dtisk.cz/p/lozisko-623zz</t>
+  </si>
+  <si>
+    <t>Alu deska</t>
+  </si>
+  <si>
+    <t>2x230x380</t>
+  </si>
+  <si>
+    <t>http://www.ehlinik.cz/hladke-hlinikove-plechy-standard/kat-N300000101.html</t>
+  </si>
+  <si>
+    <t>čtvercová matice M2,5</t>
+  </si>
+  <si>
+    <t>http://www.tme.eu/cz/details/b2.5_bn145/matice/bossard/m25bn145/</t>
+  </si>
+  <si>
+    <t>https://www.unimagnet.cz/69-magnety-kv-10-10-2.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sklo </t>
+  </si>
+  <si>
+    <t>380x350x4</t>
+  </si>
+  <si>
+    <t>535x350x4</t>
+  </si>
+  <si>
+    <t>http://www.flotis.cz/cenik/</t>
+  </si>
+  <si>
+    <t>https://www.vsepro3dtisk.cz/p/lozisko-626zz</t>
+  </si>
+  <si>
+    <t>ložisko 626</t>
+  </si>
+  <si>
+    <t>M6 podložka</t>
+  </si>
+  <si>
+    <t>M6 matice</t>
+  </si>
+  <si>
+    <t>230x153x2</t>
+  </si>
+  <si>
+    <t>175x380x2</t>
+  </si>
+  <si>
+    <t>380x535x2</t>
+  </si>
+  <si>
+    <t>142x155x2</t>
+  </si>
+  <si>
+    <t>142x350x4</t>
+  </si>
+  <si>
+    <t>153x238x2</t>
+  </si>
+  <si>
+    <t>238x350x4</t>
+  </si>
+  <si>
+    <t>Plexisklo</t>
+  </si>
+  <si>
+    <t>535x200x4</t>
+  </si>
+  <si>
+    <t>388x193x4</t>
+  </si>
+  <si>
+    <t>535x396x4</t>
+  </si>
+  <si>
+    <t>388x195x4</t>
+  </si>
+  <si>
+    <t>340x380x2</t>
+  </si>
+  <si>
+    <t>https://eshop.dencop.cz/plexi-crystal-4mm-cire-3050x2050?gclid=CjwKCAjw_dTMBRBHEiwApIzn_H06Jtm0CDDRNFqeINBWdAaqtCHg-BCKWeupLabZEPlvEvyU-FTp_hoCy8IQAvD_BwE</t>
+  </si>
+  <si>
+    <t>M6 šroub</t>
+  </si>
+  <si>
+    <t>M5 šroub s imbusovou hlavou</t>
+  </si>
+  <si>
+    <t>M3 šroub s imbusovou hlavou</t>
+  </si>
+  <si>
+    <t>M3 podložka</t>
+  </si>
+  <si>
+    <t>M3 matice</t>
+  </si>
+  <si>
+    <t>M3 vrut s křížovou hlavou</t>
+  </si>
+  <si>
+    <t>M4 šroub s imbusovou hlavou</t>
+  </si>
+  <si>
+    <t>M3 samojistná matice</t>
+  </si>
+  <si>
+    <t>gumová nožička</t>
+  </si>
+  <si>
+    <t>http://www.a20.cz/4220/</t>
+  </si>
+  <si>
+    <t>délka [mm]</t>
+  </si>
+  <si>
+    <t>M2,5 šroub s imbusovou hlavou</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -237,10 +345,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -251,8 +360,19 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -565,16 +685,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G33"/>
+  <dimension ref="B1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" style="1" customWidth="1"/>
@@ -582,598 +702,1181 @@
     <col min="7" max="7" width="198.5703125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2">
+        <f>SUM(E7:E8,E10:E109)</f>
+        <v>328.31801257861639</v>
+      </c>
+      <c r="F1" s="2">
+        <f>SUM(F7:F8,F10:F109)</f>
+        <v>460.47109182389943</v>
+      </c>
+    </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
+        <v>33</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
+        <f>E1*25</f>
+        <v>8207.95031446541</v>
+      </c>
+      <c r="F2" s="2">
+        <f>F1*25</f>
+        <v>11511.777295597485</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>11.24</v>
-      </c>
-      <c r="F3" s="1">
-        <f>E3*2</f>
-        <v>22.48</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1">
-        <v>11.24</v>
-      </c>
-      <c r="F4" s="1">
-        <v>11.24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="1">
-        <v>2.99</v>
-      </c>
-      <c r="F6" s="1">
-        <f>E6*D6</f>
-        <v>8.9700000000000006</v>
-      </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>340</v>
       </c>
       <c r="D7" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1">
-        <v>1.69</v>
+        <v>11.24</v>
       </c>
       <c r="F7" s="1">
-        <f>E7*D7</f>
-        <v>13.52</v>
+        <f>E7*3</f>
+        <v>33.72</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>350</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E8" s="1">
-        <v>5.99</v>
+        <v>11.24</v>
       </c>
       <c r="F8" s="1">
-        <v>5.99</v>
+        <f>11.24*2</f>
+        <v>22.48</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>135</v>
       </c>
       <c r="D9" s="1">
-        <v>80</v>
-      </c>
-      <c r="E9" s="1">
-        <f>0.3/25</f>
-        <v>1.2E-2</v>
-      </c>
-      <c r="F9" s="1">
-        <f>E9*D9</f>
-        <v>0.96</v>
+        <v>6</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="E10" s="1">
-        <f>0.35/25</f>
-        <v>1.3999999999999999E-2</v>
+        <v>2.99</v>
       </c>
       <c r="F10" s="1">
         <f>E10*D10</f>
-        <v>1.1199999999999999</v>
+        <v>17.940000000000001</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.69</v>
+      </c>
+      <c r="F11" s="1">
+        <f>E11*D11</f>
+        <v>13.52</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5.99</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5.99</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="6">
+        <v>15</v>
+      </c>
+      <c r="D13" s="6">
         <v>4</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>350</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1">
         <f>((260/1000)*350)/25</f>
         <v>3.64</v>
       </c>
-      <c r="F11" s="1">
-        <f>E11*D11</f>
+      <c r="F16" s="1">
+        <f>E16*D16</f>
         <v>14.56</v>
       </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>13.81</v>
-      </c>
-      <c r="F12" s="1">
-        <v>13.81</v>
-      </c>
-      <c r="G12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>9.49</v>
-      </c>
-      <c r="F14" s="1">
-        <v>9.49</v>
-      </c>
-      <c r="G14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="1">
-        <v>315</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1">
-        <v>11.85</v>
-      </c>
-      <c r="F15" s="1">
-        <f>E15*D15</f>
-        <v>23.7</v>
-      </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="1">
-        <v>280</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>11.85</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" ref="F16:F17" si="0">E16*D16</f>
-        <v>23.7</v>
-      </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>13.81</v>
+      </c>
+      <c r="F17" s="1">
+        <v>13.81</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>9.49</v>
+      </c>
+      <c r="F19" s="1">
+        <v>9.49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1">
+        <v>315</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>11.85</v>
+      </c>
+      <c r="F20" s="1">
+        <f>E20*D20</f>
+        <v>23.7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1">
+        <v>280</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>11.85</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" ref="F21:F22" si="0">E21*D21</f>
+        <v>23.7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1">
         <v>330</v>
       </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
         <v>11.85</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F22" s="1">
         <f t="shared" si="0"/>
         <v>11.85</v>
       </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1">
         <v>380</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D23" s="1">
         <v>2</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E23" s="1">
         <v>17.670000000000002</v>
       </c>
-      <c r="F18" s="1">
-        <f>E18*D18</f>
+      <c r="F23" s="1">
+        <f>E23*D23</f>
         <v>35.340000000000003</v>
       </c>
-      <c r="G18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1">
         <v>320</v>
       </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
         <v>17.670000000000002</v>
       </c>
-      <c r="F19" s="1">
-        <f>E19*D19</f>
+      <c r="F24" s="1">
+        <f>E24*D24</f>
         <v>17.670000000000002</v>
       </c>
-      <c r="G19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
         <v>8.6</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F25" s="1">
         <v>8.6</v>
       </c>
-      <c r="G20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="1">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E26" s="3">
         <v>0.27</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F26" s="1">
         <f>0.27*4</f>
         <v>1.08</v>
       </c>
-      <c r="G21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>5</v>
-      </c>
-      <c r="F22" s="1">
-        <v>5</v>
-      </c>
-      <c r="G22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2</v>
-      </c>
-      <c r="E23" s="1">
-        <v>37.369999999999997</v>
-      </c>
-      <c r="F23" s="1">
-        <f>E23*D23</f>
-        <v>74.739999999999995</v>
-      </c>
-      <c r="G23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
-        <v>9.99</v>
-      </c>
-      <c r="F24" s="1">
-        <v>9.99</v>
-      </c>
-      <c r="G24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1">
-        <v>7.66</v>
-      </c>
-      <c r="F25" s="1">
-        <v>7.66</v>
-      </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="1">
-        <v>5</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="F26" s="1">
-        <f>E26*D26</f>
-        <v>6</v>
-      </c>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>9.58</v>
+        <v>5</v>
       </c>
       <c r="F27" s="1">
-        <v>9.58</v>
+        <v>5</v>
       </c>
       <c r="G27" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D28" s="1">
         <v>2</v>
       </c>
       <c r="E28" s="1">
+        <v>37.369999999999997</v>
+      </c>
+      <c r="F28" s="1">
+        <f>E28*D28</f>
+        <v>74.739999999999995</v>
+      </c>
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>9.99</v>
+      </c>
+      <c r="F29" s="1">
+        <v>9.99</v>
+      </c>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>7.66</v>
+      </c>
+      <c r="F30" s="1">
+        <v>7.66</v>
+      </c>
+      <c r="G30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F31" s="1">
+        <f>E31*D31</f>
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>9.58</v>
+      </c>
+      <c r="F32" s="1">
+        <v>9.58</v>
+      </c>
+      <c r="G32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1">
         <f>20/25</f>
         <v>0.8</v>
       </c>
-      <c r="F28" s="1">
-        <f>E28*D28</f>
+      <c r="F33" s="1">
+        <f>E33*D33</f>
         <v>1.6</v>
       </c>
-      <c r="G28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
         <v>1.68</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F34" s="1">
         <v>1.68</v>
       </c>
-      <c r="G29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="G34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
         <f>907/25</f>
         <v>36.28</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F35" s="1">
         <v>36.28</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <f>960/25</f>
+        <v>38.4</v>
+      </c>
+      <c r="F37" s="1">
+        <v>3</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="D38" s="1">
+        <v>12</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1.42</v>
+      </c>
+      <c r="F38" s="1">
+        <f>0.0142*D38</f>
+        <v>0.1704</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="1">
+        <v>12</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F39" s="1">
+        <f>E39*D39</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="G39" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1</v>
-      </c>
-      <c r="G31" t="s">
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="1">
-        <f>SUM(E3:E4,E6:E31)</f>
-        <v>253.03600000000003</v>
-      </c>
-      <c r="F32" s="1">
-        <f>SUM(F3:F4,F6:F31)</f>
-        <v>380.21000000000004</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="C40" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+      <c r="E40" s="4">
+        <f>E42-E41</f>
+        <v>0.97382716049382723</v>
+      </c>
+      <c r="F40" s="4">
+        <f>E40*D40</f>
+        <v>0.97382716049382723</v>
+      </c>
+      <c r="G40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4">
+        <f>E42/2.7</f>
+        <v>0.57283950617283941</v>
+      </c>
+      <c r="F41" s="4">
+        <f>E41*D41</f>
+        <v>0.57283950617283941</v>
+      </c>
+      <c r="G41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1">
+        <f>(290/7.5)/25</f>
+        <v>1.5466666666666666</v>
+      </c>
+      <c r="F42" s="1">
+        <f>E42*D42</f>
+        <v>1.5466666666666666</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
+      <c r="E43" s="1">
+        <f>(290/5.3)/25</f>
+        <v>2.1886792452830188</v>
+      </c>
+      <c r="F43" s="1">
+        <f>E43*D43</f>
+        <v>4.3773584905660377</v>
+      </c>
+      <c r="G43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="1">
+        <v>4</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>4</v>
+      </c>
+      <c r="G44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="6">
+        <v>140</v>
+      </c>
+      <c r="D46" s="6">
+        <v>1</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="G48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="6">
+        <v>1</v>
+      </c>
+      <c r="E49" s="6">
+        <v>2.48</v>
+      </c>
+      <c r="F49" s="6">
+        <v>2.48</v>
+      </c>
+      <c r="G49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="G50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="G51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="F52" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="G53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2</v>
+      </c>
+      <c r="E54" s="1">
+        <f>109.4/25</f>
+        <v>4.3760000000000003</v>
+      </c>
+      <c r="F54" s="1">
+        <f>E54*D54</f>
+        <v>8.7520000000000007</v>
+      </c>
+      <c r="G54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1">
+        <f>76.68/25</f>
+        <v>3.0672000000000001</v>
+      </c>
+      <c r="F55" s="6">
+        <f t="shared" ref="F55:F57" si="1">E55*D55</f>
+        <v>3.0672000000000001</v>
+      </c>
+      <c r="G55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1">
+        <f>75.66/25</f>
+        <v>3.0263999999999998</v>
+      </c>
+      <c r="F56" s="6">
+        <f t="shared" si="1"/>
+        <v>3.0263999999999998</v>
+      </c>
+      <c r="G56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1">
+        <f>216.76/25</f>
+        <v>8.670399999999999</v>
+      </c>
+      <c r="F57" s="6">
+        <f t="shared" si="1"/>
+        <v>8.670399999999999</v>
+      </c>
+      <c r="G57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="6">
+        <v>18</v>
+      </c>
+      <c r="D58" s="6">
+        <v>10</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="1">
+        <v>8</v>
+      </c>
+      <c r="D59" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="6">
+        <v>20</v>
+      </c>
+      <c r="D60" s="6">
+        <v>16</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="1">
+        <v>30</v>
+      </c>
+      <c r="D61" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="6">
+        <v>10</v>
+      </c>
+      <c r="D62" s="6">
+        <v>4</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="1">
+        <v>35</v>
+      </c>
+      <c r="D63" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="1">
         <v>40</v>
       </c>
-      <c r="E33" s="1">
-        <f>E32*25</f>
-        <v>6325.9000000000005</v>
-      </c>
-      <c r="F33" s="1">
-        <f>F32*25</f>
-        <v>9505.25</v>
+      <c r="D64" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6">
+        <v>8</v>
+      </c>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>85</v>
+      </c>
+      <c r="D67" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="1">
+        <v>15</v>
+      </c>
+      <c r="D68" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="1">
+        <v>5</v>
+      </c>
+      <c r="D69" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="6">
+        <v>50842</v>
+      </c>
+      <c r="D70" s="1">
+        <v>4</v>
+      </c>
+      <c r="E70" s="1">
+        <f>3.9/25</f>
+        <v>0.156</v>
+      </c>
+      <c r="F70" s="1">
+        <f>E70*D70</f>
+        <v>0.624</v>
+      </c>
+      <c r="G70" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="1">
+        <v>5</v>
+      </c>
+      <c r="D71" s="1">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E9:F9"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G37" r:id="rId1"/>
+    <hyperlink ref="G42" r:id="rId2"/>
+    <hyperlink ref="G38" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>